--- a/cgmr/inst/extdata/Activity.xlsx
+++ b/cgmr/inst/extdata/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8bc6084b92ffa451/Sprague 2019/Health 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sprague/dev/cgm/cgmr/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="114_{B7357B50-4B94-C145-ACEA-929B2CB5DE09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C09E1073-8039-CF4B-9841-08FD33A31227}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC2C635-21B8-4E4C-84C0-F025DBA5589F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1240" windowWidth="28040" windowHeight="17540" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
+    <workbookView xWindow="3820" yWindow="2380" windowWidth="28040" windowHeight="17540" xr2:uid="{EDA8406F-1EF0-334E-A61E-C477B3B92516}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="448">
   <si>
     <t>Start</t>
   </si>
@@ -1219,12 +1219,6 @@
     <t>Red Wine</t>
   </si>
   <si>
-    <t>Pasta (Pesto)</t>
-  </si>
-  <si>
-    <t>Fried chicken</t>
-  </si>
-  <si>
     <t>Salmon + mushrooms + wine</t>
   </si>
   <si>
@@ -1319,6 +1313,69 @@
   </si>
   <si>
     <t>Mexican pork + frijoles</t>
+  </si>
+  <si>
+    <t>glucose Drink (75g)</t>
+  </si>
+  <si>
+    <t>Blue muffins</t>
+  </si>
+  <si>
+    <t>Fried chicken (389g)</t>
+  </si>
+  <si>
+    <t>Banana (84g)</t>
+  </si>
+  <si>
+    <t>Pasta 437g (Pesto 122g)</t>
+  </si>
+  <si>
+    <t>banana (163g) peanut butter (167g)</t>
+  </si>
+  <si>
+    <t>Rooibus Red Tea</t>
+  </si>
+  <si>
+    <t>Chinese fried rice + mabo tofu</t>
+  </si>
+  <si>
+    <t>Apple-grape juice</t>
+  </si>
+  <si>
+    <t>apple pie (120g)</t>
+  </si>
+  <si>
+    <t>Chicken + broccoli + bread</t>
+  </si>
+  <si>
+    <t>Latte (almond milk)</t>
+  </si>
+  <si>
+    <t>Banana (125g) peanut butter (135g)</t>
+  </si>
+  <si>
+    <t>Melatonin (3mg)</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>mushrooms, bell peppers, and couscous</t>
+  </si>
+  <si>
+    <t>Eggs + mushrooms</t>
+  </si>
+  <si>
+    <t>Banana (125g) peanut butter (40g)</t>
+  </si>
+  <si>
+    <t>McDonalds Big Mac</t>
+  </si>
+  <si>
+    <t>Tuna garlic tortillas, root vegetables</t>
+  </si>
+  <si>
+    <t>Banana (135g) nut butter (100g)</t>
   </si>
 </sst>
 </file>
@@ -1603,8 +1660,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:E705" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:E705" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F4789F44-1BF7-2E46-A5C7-20F44902F54B}" name="Table2" displayName="Table2" ref="A1:E744" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:E744" xr:uid="{B3AC50C6-9182-CB43-9817-9BF8FEE3CABC}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{378B7070-ADA2-F840-857A-A5C12E2181D6}" name="Start" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{50BA6A11-7F67-3245-A885-F61A29E0428D}" name="End"/>
@@ -1928,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BBD169-48D2-8F48-8801-52F9E2F03988}">
-  <dimension ref="A1:E705"/>
+  <dimension ref="A1:E744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="A706" sqref="A706"/>
+    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
+      <selection activeCell="A743" sqref="A743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,7 +1996,7 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -11391,7 +11448,7 @@
         <v>4</v>
       </c>
       <c r="D629" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E629" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11496,7 +11553,7 @@
         <v>4</v>
       </c>
       <c r="D636" t="s">
-        <v>314</v>
+        <v>432</v>
       </c>
       <c r="E636" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11556,7 +11613,7 @@
         <v>4</v>
       </c>
       <c r="D640" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E640" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11565,13 +11622,13 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
-        <v>43762.565972222219</v>
+        <v>43762.559027777781</v>
       </c>
       <c r="C641" t="s">
         <v>4</v>
       </c>
       <c r="D641" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="E641" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11586,7 +11643,7 @@
         <v>4</v>
       </c>
       <c r="D642" t="s">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="E642" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11691,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="D649" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="E649" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11706,7 +11763,7 @@
         <v>4</v>
       </c>
       <c r="D650" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E650" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11751,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="D653" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E653" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11766,7 +11823,7 @@
         <v>4</v>
       </c>
       <c r="D654" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E654" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11796,7 +11853,7 @@
         <v>4</v>
       </c>
       <c r="D656" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E656" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11826,7 +11883,7 @@
         <v>4</v>
       </c>
       <c r="D658" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E658" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11841,7 +11898,7 @@
         <v>4</v>
       </c>
       <c r="D659" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E659" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11886,7 +11943,7 @@
         <v>4</v>
       </c>
       <c r="D662" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E662" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11916,7 +11973,7 @@
         <v>4</v>
       </c>
       <c r="D664" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E664" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11931,7 +11988,7 @@
         <v>4</v>
       </c>
       <c r="D665" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E665" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11976,7 +12033,7 @@
         <v>4</v>
       </c>
       <c r="D668" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E668" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -11991,7 +12048,7 @@
         <v>4</v>
       </c>
       <c r="D669" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E669" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12006,7 +12063,7 @@
         <v>4</v>
       </c>
       <c r="D670" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E670" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12021,7 +12078,7 @@
         <v>4</v>
       </c>
       <c r="D671" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E671" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12096,7 +12153,7 @@
         <v>4</v>
       </c>
       <c r="D676" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E676" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12111,7 +12168,7 @@
         <v>4</v>
       </c>
       <c r="D677" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E677" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12141,7 +12198,7 @@
         <v>4</v>
       </c>
       <c r="D679" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E679" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12171,7 +12228,7 @@
         <v>4</v>
       </c>
       <c r="D681" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E681" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12186,7 +12243,7 @@
         <v>4</v>
       </c>
       <c r="D682" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E682" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12231,7 +12288,7 @@
         <v>4</v>
       </c>
       <c r="D685" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E685" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12246,7 +12303,7 @@
         <v>4</v>
       </c>
       <c r="D686" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E686" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12261,7 +12318,7 @@
         <v>4</v>
       </c>
       <c r="D687" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E687" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12276,7 +12333,7 @@
         <v>4</v>
       </c>
       <c r="D688" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E688" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12306,7 +12363,7 @@
         <v>4</v>
       </c>
       <c r="D690" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E690" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12336,7 +12393,7 @@
         <v>4</v>
       </c>
       <c r="D692" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E692" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12351,7 +12408,7 @@
         <v>4</v>
       </c>
       <c r="D693" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E693" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12366,7 +12423,7 @@
         <v>4</v>
       </c>
       <c r="D694" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E694" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12381,7 +12438,7 @@
         <v>4</v>
       </c>
       <c r="D695" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E695" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12396,7 +12453,7 @@
         <v>4</v>
       </c>
       <c r="D696" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E696" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12411,7 +12468,7 @@
         <v>4</v>
       </c>
       <c r="D697" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E697" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12426,7 +12483,7 @@
         <v>4</v>
       </c>
       <c r="D698" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E698" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12441,7 +12498,7 @@
         <v>4</v>
       </c>
       <c r="D699" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E699" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12516,7 +12573,7 @@
         <v>4</v>
       </c>
       <c r="D704" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E704" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
@@ -12531,9 +12588,588 @@
         <v>4</v>
       </c>
       <c r="D705" t="s">
+        <v>426</v>
+      </c>
+      <c r="E705" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>43757.910300925927</v>
+      </c>
+      <c r="B706" s="1">
+        <v>43758.258333333331</v>
+      </c>
+      <c r="C706" t="s">
+        <v>6</v>
+      </c>
+      <c r="E706" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.3527777777053416</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>43755.897256944445</v>
+      </c>
+      <c r="B707" s="25">
+        <v>43756.313194444447</v>
+      </c>
+      <c r="C707" t="s">
+        <v>6</v>
+      </c>
+      <c r="E707" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>9.9825000000419095</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>43757.001701388886</v>
+      </c>
+      <c r="B708" s="1">
+        <v>43757.234722222223</v>
+      </c>
+      <c r="C708" t="s">
+        <v>6</v>
+      </c>
+      <c r="E708" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>5.5925000000861473</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>43757.910300925927</v>
+      </c>
+      <c r="B709" s="1">
+        <v>43758.258333333331</v>
+      </c>
+      <c r="C709" t="s">
+        <v>6</v>
+      </c>
+      <c r="E709" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>8.3527777777053416</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>43758.925694444442</v>
+      </c>
+      <c r="B710" s="1">
+        <v>43759.231944444444</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
+      </c>
+      <c r="E710" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.3500000000349246</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>43758.270833333336</v>
+      </c>
+      <c r="B711" s="1"/>
+      <c r="C711" t="s">
+        <v>4</v>
+      </c>
+      <c r="D711" t="s">
+        <v>427</v>
+      </c>
+      <c r="E711" s="15"/>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>43757.239583333336</v>
+      </c>
+      <c r="B712" s="25"/>
+      <c r="C712" t="s">
+        <v>4</v>
+      </c>
+      <c r="D712" t="s">
         <v>428</v>
       </c>
-      <c r="E705" s="15" t="str">
+      <c r="E712" s="15"/>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>43759.618055555555</v>
+      </c>
+      <c r="B713" s="25"/>
+      <c r="C713" t="s">
+        <v>4</v>
+      </c>
+      <c r="D713" t="s">
+        <v>433</v>
+      </c>
+      <c r="E713" s="15"/>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>43759.760416666664</v>
+      </c>
+      <c r="C714" t="s">
+        <v>4</v>
+      </c>
+      <c r="D714" t="s">
+        <v>419</v>
+      </c>
+      <c r="E714" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>43792.942106481481</v>
+      </c>
+      <c r="B715" s="1">
+        <v>43793.249305555553</v>
+      </c>
+      <c r="C715" t="s">
+        <v>6</v>
+      </c>
+      <c r="E715" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>7.372777777723968</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>43792.729166666664</v>
+      </c>
+      <c r="C716" t="s">
+        <v>4</v>
+      </c>
+      <c r="D716" t="s">
+        <v>434</v>
+      </c>
+      <c r="E716" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>43792.84375</v>
+      </c>
+      <c r="C717" t="s">
+        <v>4</v>
+      </c>
+      <c r="D717" t="s">
+        <v>435</v>
+      </c>
+      <c r="E717" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>43793.260416666664</v>
+      </c>
+      <c r="C718" t="s">
+        <v>4</v>
+      </c>
+      <c r="D718" t="s">
+        <v>5</v>
+      </c>
+      <c r="E718" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>43793.449305555558</v>
+      </c>
+      <c r="C719" t="s">
+        <v>4</v>
+      </c>
+      <c r="D719" t="s">
+        <v>403</v>
+      </c>
+      <c r="E719" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>43793.545138888891</v>
+      </c>
+      <c r="C720" t="s">
+        <v>4</v>
+      </c>
+      <c r="D720" t="s">
+        <v>434</v>
+      </c>
+      <c r="E720" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>43793.637499999997</v>
+      </c>
+      <c r="C721" t="s">
+        <v>4</v>
+      </c>
+      <c r="D721" t="s">
+        <v>436</v>
+      </c>
+      <c r="E721" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>43793.767361111109</v>
+      </c>
+      <c r="C722" t="s">
+        <v>4</v>
+      </c>
+      <c r="D722" t="s">
+        <v>437</v>
+      </c>
+      <c r="E722" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>43793.885416666664</v>
+      </c>
+      <c r="C723" t="s">
+        <v>4</v>
+      </c>
+      <c r="D723" t="s">
+        <v>440</v>
+      </c>
+      <c r="E723" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>43793.917361111111</v>
+      </c>
+      <c r="B724" s="1">
+        <v>43794.208333333336</v>
+      </c>
+      <c r="C724" t="s">
+        <v>6</v>
+      </c>
+      <c r="E724" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.9833333333954215</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>43794.21875</v>
+      </c>
+      <c r="C725" t="s">
+        <v>4</v>
+      </c>
+      <c r="D725" t="s">
+        <v>438</v>
+      </c>
+      <c r="E725" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>43794.34375</v>
+      </c>
+      <c r="C726" t="s">
+        <v>4</v>
+      </c>
+      <c r="D726" t="s">
+        <v>439</v>
+      </c>
+      <c r="E726" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>43794.510416666664</v>
+      </c>
+      <c r="C727" t="s">
+        <v>4</v>
+      </c>
+      <c r="D727" t="s">
+        <v>441</v>
+      </c>
+      <c r="E727" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>43794.517361111109</v>
+      </c>
+      <c r="C728" t="s">
+        <v>4</v>
+      </c>
+      <c r="D728" t="s">
+        <v>196</v>
+      </c>
+      <c r="E728" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>43794.774305555555</v>
+      </c>
+      <c r="C729" t="s">
+        <v>4</v>
+      </c>
+      <c r="D729" t="s">
+        <v>442</v>
+      </c>
+      <c r="E729" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>43794.708333333336</v>
+      </c>
+      <c r="C730" t="s">
+        <v>4</v>
+      </c>
+      <c r="D730" t="s">
+        <v>85</v>
+      </c>
+      <c r="E730" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>43794.910578703704</v>
+      </c>
+      <c r="B731" s="1">
+        <v>43795.196527777778</v>
+      </c>
+      <c r="C731" t="s">
+        <v>6</v>
+      </c>
+      <c r="E731" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.8627777777728625</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>43794.875</v>
+      </c>
+      <c r="C732" t="s">
+        <v>4</v>
+      </c>
+      <c r="D732" t="s">
+        <v>440</v>
+      </c>
+      <c r="E732" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>43794.864583333336</v>
+      </c>
+      <c r="C733" t="s">
+        <v>4</v>
+      </c>
+      <c r="D733" t="s">
+        <v>54</v>
+      </c>
+      <c r="E733" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>43795.21875</v>
+      </c>
+      <c r="C734" t="s">
+        <v>4</v>
+      </c>
+      <c r="D734" t="s">
+        <v>438</v>
+      </c>
+      <c r="E734" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>43795.322916666664</v>
+      </c>
+      <c r="C735" t="s">
+        <v>4</v>
+      </c>
+      <c r="D735" t="s">
+        <v>443</v>
+      </c>
+      <c r="E735" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>43795.378472222219</v>
+      </c>
+      <c r="C736" t="s">
+        <v>4</v>
+      </c>
+      <c r="D736" t="s">
+        <v>444</v>
+      </c>
+      <c r="E736" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>43795.465277777781</v>
+      </c>
+      <c r="C737" t="s">
+        <v>30</v>
+      </c>
+      <c r="D737" t="s">
+        <v>131</v>
+      </c>
+      <c r="E737" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>43795.482638888891</v>
+      </c>
+      <c r="C738" t="s">
+        <v>4</v>
+      </c>
+      <c r="D738" t="s">
+        <v>445</v>
+      </c>
+      <c r="E738" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>43795.663194444445</v>
+      </c>
+      <c r="C739" t="s">
+        <v>4</v>
+      </c>
+      <c r="D739" t="s">
+        <v>176</v>
+      </c>
+      <c r="E739" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>43795.770833333336</v>
+      </c>
+      <c r="C740" t="s">
+        <v>4</v>
+      </c>
+      <c r="D740" t="s">
+        <v>446</v>
+      </c>
+      <c r="E740" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>43795.875</v>
+      </c>
+      <c r="C741" t="s">
+        <v>4</v>
+      </c>
+      <c r="D741" t="s">
+        <v>440</v>
+      </c>
+      <c r="E741" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>43795.926365740743</v>
+      </c>
+      <c r="B742" s="1">
+        <v>43796.211805555555</v>
+      </c>
+      <c r="C742" t="s">
+        <v>6</v>
+      </c>
+      <c r="E742" s="15">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>6.8505555554875173</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>43796.21875</v>
+      </c>
+      <c r="C743" t="s">
+        <v>4</v>
+      </c>
+      <c r="D743" t="s">
+        <v>5</v>
+      </c>
+      <c r="E743" s="15" t="str">
+        <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>43796.408333333333</v>
+      </c>
+      <c r="C744" t="s">
+        <v>4</v>
+      </c>
+      <c r="D744" t="s">
+        <v>447</v>
+      </c>
+      <c r="E744" s="15" t="str">
         <f>IF(Table2[[#This Row],[Activity]]="Sleep",(Table2[[#This Row],[End]]-Table2[[#This Row],[Start]])*24,"NA")</f>
         <v>NA</v>
       </c>
